--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,17 +423,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>40676</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>56100131</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>♪iran†★</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2603</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52140</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>70792</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>59222805</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>CAMILO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1782</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>79956</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>59166269</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>Player-59166269</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>44437839</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>strangetamer828</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -590,12 +590,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>56100131</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>♪iran†★</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>59166269</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Player-59166269</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -644,12 +644,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>44437839</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>strangetamer828</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>42558469</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>palyer25524836</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>43834954</t>
+          <t>42558469</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>wuhugouyun</t>
+          <t>palyer25524836</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>59206405</t>
+          <t>43834954</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>pro-59206405</t>
+          <t>wuhugouyun</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -752,12 +752,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>59206405</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>pro-59206405</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>59231345</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Player-59231345</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>59222805</t>
+          <t>59231345</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CAMILO</t>
+          <t>Player-59231345</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -855,17 +855,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12485</t>
+          <t>7885</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3052</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>22263</t>
+          <t>9701</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>3019</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>13491</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2968</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>14873</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2949</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>26647</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2809</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52682</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
@@ -1022,12 +1022,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2831</t>
+          <t>3213</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>6367</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>3084</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>7221</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>3065</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4052</t>
+          <t>8239</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2596</t>
+          <t>3045</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5066</t>
+          <t>9952</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>3015</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6073</t>
+          <t>13027</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>2974</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7452</t>
+          <t>13727</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2518</t>
+          <t>2965</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>12003</t>
+          <t>14621</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2952</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10526</t>
+          <t>18328</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2902</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>17238</t>
+          <t>20999</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2869</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>23870</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2835</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>34100</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2719</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>34724</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2708</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>51118</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2508</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2818</t>
+          <t>3335</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4100</t>
+          <t>2141</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2594</t>
+          <t>3204</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2583</t>
+          <t>3159</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4394</t>
+          <t>8421</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>AOW全体工作人员吃屎交易大厅</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>3042</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>7905</t>
+          <t>10207</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>3011</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8925</t>
+          <t>12097</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>49043337</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FanXiFang1976</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2513</t>
+          <t>2986</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10621</t>
+          <t>13012</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2974</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>11088</t>
+          <t>16680</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2924</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>11954</t>
+          <t>17631</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>35114520</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>13lur¹³</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2911</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>21428</t>
+          <t>20327</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2878</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>12115</t>
+          <t>21086</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>49043337</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>FanXiFang1976</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2868</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>23946</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2834</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>24951</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2824</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>26868</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>何苦僧ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2807</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>27482</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>28585</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2790</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>30996</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2763</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>34076</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2719</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>38994</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2632</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48728</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2518</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53070</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52554</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>55434</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2497</t>
         </is>
       </c>
     </row>
@@ -2102,12 +2102,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2129,17 +2129,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2156,17 +2156,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2286,17 +2286,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>36670</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2675</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>36006</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2687</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53289</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2772,27 +2772,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>11922</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2804,17 +2804,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2826,17 +2826,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>57434</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2494</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2885,12 +2885,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2907,17 +2907,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>102274</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -2939,12 +2939,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3128,12 +3128,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3155,12 +3155,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>59112086</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3182,12 +3182,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3196,6 +3196,60 @@
         </is>
       </c>
       <c r="E105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>59106471</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>anime</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>59112086</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>sigma</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>63025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2494</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>40676</t>
+          <t>59034</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>56100131</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>♪iran†★</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>52140</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>70792</t>
+          <t>61614</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>59222805</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CAMILO</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1782</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>79956</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>59166269</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Player-59166269</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,250 +524,250 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>59062</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>66666</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4236</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>4847</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4003</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>5484</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3993</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>10193</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>44437839</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>strangetamer828</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3821</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>21124</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3471</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>36128</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>42558469</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>palyer25524836</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3056</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54803</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>43834954</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>wuhugouyun</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2560</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>61296</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>59206405</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>pro-59206405</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -801,44 +801,44 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>9915</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>59231345</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Player-59231345</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3832</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>10321</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>66666</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3816</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7885</t>
+          <t>11025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3052</t>
+          <t>3789</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9701</t>
+          <t>11225</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>3782</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>13491</t>
+          <t>12565</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>3731</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>14873</t>
+          <t>13494</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>3701</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>26647</t>
+          <t>21324</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2809</t>
+          <t>3465</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>52682</t>
+          <t>21756</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3454</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>22850</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3427</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>22843</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3427</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>30072</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3238</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>31137</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>3207</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6367</t>
+          <t>37727</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3084</t>
+          <t>3002</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7221</t>
+          <t>40641</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3065</t>
+          <t>2905</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8239</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>4227</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9952</t>
+          <t>4962</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>3999</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13027</t>
+          <t>5030</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>꧁SSS.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2974</t>
+          <t>3998</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>13727</t>
+          <t>8366</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2965</t>
+          <t>3894</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14621</t>
+          <t>10755</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2952</t>
+          <t>3799</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>18328</t>
+          <t>12094</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2902</t>
+          <t>3748</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20999</t>
+          <t>14071</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>3682</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>23870</t>
+          <t>14887</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>35114520</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>13lur¹³</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2835</t>
+          <t>3654</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>34100</t>
+          <t>20224</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>何苦僧ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2719</t>
+          <t>3494</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>34724</t>
+          <t>21518</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>3460</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>51118</t>
+          <t>22720</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2508</t>
+          <t>3430</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>23570</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3335</t>
+          <t>3410</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2141</t>
+          <t>26594</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3204</t>
+          <t>3332</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3456</t>
+          <t>29747</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>3246</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>8421</t>
+          <t>34242</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AOW全体工作人员吃屎交易大厅</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3042</t>
+          <t>3117</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10207</t>
+          <t>34530</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>3108</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>12097</t>
+          <t>36132</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2986</t>
+          <t>3056</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>13012</t>
+          <t>39744</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2974</t>
+          <t>2934</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>16680</t>
+          <t>40219</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2924</t>
+          <t>2918</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>17631</t>
+          <t>49427</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>35114520</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>13lur¹³</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2911</t>
+          <t>2651</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20327</t>
+          <t>52300</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2878</t>
+          <t>2595</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>21086</t>
+          <t>55265</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>49043337</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>FanXiFang1976</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2868</t>
+          <t>2554</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>23946</t>
+          <t>61465</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>24951</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2824</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>26868</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>何苦僧ᶻᵍˣ</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,191 +1847,191 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2807</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>27482</t>
+          <t>54196</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2567</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>28585</t>
+          <t>62320</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2790</t>
+          <t>2497</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>30996</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2763</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>34076</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2719</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>38994</t>
+          <t>33910</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2632</t>
+          <t>3127</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>48728</t>
+          <t>33719</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2518</t>
+          <t>3133</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>53070</t>
+          <t>61165</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2043,22 +2043,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>52554</t>
+          <t>61553</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2070,27 +2070,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>55434</t>
+          <t>84792</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>1526</t>
         </is>
       </c>
     </row>
@@ -2102,17 +2102,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2129,17 +2129,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2156,17 +2156,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2286,17 +2286,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>36670</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2675</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>36006</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2687</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>53289</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2502,27 +2502,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>42967</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2831</t>
         </is>
       </c>
     </row>
@@ -2534,17 +2534,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2561,17 +2561,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2583,27 +2583,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>131087</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -2615,17 +2615,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2642,17 +2642,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2696,17 +2696,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2723,17 +2723,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2750,17 +2750,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2777,17 +2777,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2804,17 +2804,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2826,17 +2826,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>57434</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2494</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2885,12 +2885,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2907,17 +2907,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>102274</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2926,330 +2926,6 @@
         </is>
       </c>
       <c r="E95" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>58572199</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>你干嘛～哎呦～</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>58766144</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>EquablePrecedence38</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>29355299</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Player-29355299</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>58910668</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>BrittleAuthor33</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>55745105</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>eldeniz</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>58174442</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Player-58174442</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>58671339</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>"quang pro"</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>41231396</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>ollsthebro</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>59081265</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>爬楼梯</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>59082827</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Player-59082827</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>59106471</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>anime</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>59112086</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>63025</t>
+          <t>59123</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2494</t>
+          <t>2534</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>59034</t>
+          <t>61117</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,7 +443,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2515</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>61614</t>
+          <t>40179</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>3067</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>59062</t>
+          <t>61041</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>7211</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4236</t>
+          <t>4206</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4847</t>
+          <t>8445</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4003</t>
+          <t>4157</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5484</t>
+          <t>10533</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>4072</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10193</t>
+          <t>12353</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3821</t>
+          <t>4007</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21124</t>
+          <t>14308</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3471</t>
+          <t>3985</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>36128</t>
+          <t>36024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>3254</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>54803</t>
+          <t>57027</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>61296</t>
+          <t>62927</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -801,17 +801,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9915</t>
+          <t>12287</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3832</t>
+          <t>4009</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10321</t>
+          <t>12462</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3816</t>
+          <t>4004</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11025</t>
+          <t>13015</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3789</t>
+          <t>3996</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11225</t>
+          <t>13107</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3782</t>
+          <t>3995</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>12565</t>
+          <t>13764</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3731</t>
+          <t>3991</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>13494</t>
+          <t>17853</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>3867</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21324</t>
+          <t>20581</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3465</t>
+          <t>3777</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21756</t>
+          <t>22559</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3454</t>
+          <t>3715</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22850</t>
+          <t>23187</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3427</t>
+          <t>3696</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>22843</t>
+          <t>26454</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3427</t>
+          <t>3592</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30072</t>
+          <t>27489</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3238</t>
+          <t>3557</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>31137</t>
+          <t>29478</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3207</t>
+          <t>3491</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>37727</t>
+          <t>35146</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3002</t>
+          <t>3294</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>40641</t>
+          <t>44250</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>2889</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4227</t>
+          <t>4591</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4962</t>
+          <t>7136</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>4209</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5030</t>
+          <t>7688</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>꧁SSS.TIGRESS꧂ᶻᵍˣ</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3998</t>
+          <t>4189</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8366</t>
+          <t>10979</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3894</t>
+          <t>4053</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10755</t>
+          <t>11108</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>35114520</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>13lur¹³</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3799</t>
+          <t>4049</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>12094</t>
+          <t>13343</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>꧁SSS.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3748</t>
+          <t>3994</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14071</t>
+          <t>13939</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3682</t>
+          <t>3989</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>14887</t>
+          <t>16148</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>35114520</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13lur¹³</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,14 +1388,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3654</t>
+          <t>3928</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20224</t>
+          <t>18062</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>3859</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>21518</t>
+          <t>18981</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3460</t>
+          <t>3829</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>22720</t>
+          <t>20933</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>3767</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>23570</t>
+          <t>25789</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3410</t>
+          <t>3613</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>26594</t>
+          <t>26185</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3332</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>29747</t>
+          <t>27138</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3246</t>
+          <t>3568</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>34242</t>
+          <t>32715</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3117</t>
+          <t>3382</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>34530</t>
+          <t>35804</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>3264</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>36132</t>
+          <t>35901</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>3260</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>39744</t>
+          <t>40011</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>3076</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>40219</t>
+          <t>40106</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2918</t>
+          <t>3071</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>49427</t>
+          <t>52001</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1719,7 +1719,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>52300</t>
+          <t>52783</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2595</t>
+          <t>2633</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>55265</t>
+          <t>55578</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>2581</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>61465</t>
+          <t>61062</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>63069</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>54196</t>
+          <t>54126</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2567</t>
+          <t>2606</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>62320</t>
+          <t>58875</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2537</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>33910</t>
+          <t>34816</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3127</t>
+          <t>3306</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>33719</t>
+          <t>38606</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>3140</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>61165</t>
+          <t>56194</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2571</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>61553</t>
+          <t>63158</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2070,17 +2070,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>84792</t>
+          <t>63177</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>88106</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1522</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>101772</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1284</t>
         </is>
       </c>
     </row>
@@ -2156,12 +2156,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2372,12 +2372,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2502,7 +2502,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>42967</t>
+          <t>46207</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2831</t>
+          <t>2821</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>131087</t>
+          <t>140844</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>59123</t>
+          <t>59042</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>2556</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>61117</t>
+          <t>61089</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,7 +443,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>2530</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>40179</t>
+          <t>42757</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>61041</t>
+          <t>62522</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7211</t>
+          <t>5869</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4206</t>
+          <t>4537</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8445</t>
+          <t>9554</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4157</t>
+          <t>4360</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10533</t>
+          <t>11612</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4072</t>
+          <t>4275</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12353</t>
+          <t>12786</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4007</t>
+          <t>4226</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14308</t>
+          <t>17544</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3985</t>
+          <t>4072</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>36024</t>
+          <t>38782</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3254</t>
+          <t>3300</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>57027</t>
+          <t>56911</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>2589</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>62927</t>
+          <t>64189</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -801,17 +801,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12287</t>
+          <t>12017</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>4258</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12462</t>
+          <t>13602</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4004</t>
+          <t>4196</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13015</t>
+          <t>15811</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>4122</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>13107</t>
+          <t>16243</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3995</t>
+          <t>4108</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>13764</t>
+          <t>17117</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>4083</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>17853</t>
+          <t>20600</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3867</t>
+          <t>3996</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20581</t>
+          <t>20808</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3777</t>
+          <t>3995</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>22559</t>
+          <t>22048</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>3987</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>23187</t>
+          <t>23605</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3696</t>
+          <t>3949</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>26454</t>
+          <t>24383</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>3920</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>27489</t>
+          <t>31415</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3557</t>
+          <t>3649</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>29478</t>
+          <t>32501</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3491</t>
+          <t>3604</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>35146</t>
+          <t>38678</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3294</t>
+          <t>3305</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>44250</t>
+          <t>40542</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>3199</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4591</t>
+          <t>4987</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7136</t>
+          <t>8047</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4209</t>
+          <t>4431</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7688</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>35114520</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>13lur¹³</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>4431</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10979</t>
+          <t>8398</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>4412</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>11108</t>
+          <t>9776</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>35114520</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13lur¹³</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4049</t>
+          <t>4350</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>13343</t>
+          <t>12906</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>4222</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>13939</t>
+          <t>13217</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3989</t>
+          <t>4209</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16148</t>
+          <t>13444</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3928</t>
+          <t>4201</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>18062</t>
+          <t>14214</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>何苦僧ᶻᵍˣ</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3859</t>
+          <t>4175</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>18981</t>
+          <t>18104</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>何苦僧ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3829</t>
+          <t>4057</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20933</t>
+          <t>18535</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3767</t>
+          <t>4044</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>25789</t>
+          <t>26074</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3613</t>
+          <t>3859</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>26185</t>
+          <t>26854</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>3829</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>27138</t>
+          <t>26858</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3568</t>
+          <t>3829</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>32715</t>
+          <t>27893</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,14 +1577,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3382</t>
+          <t>3790</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>35804</t>
+          <t>36306</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>3430</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>35901</t>
+          <t>36618</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3415</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>40011</t>
+          <t>39342</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3076</t>
+          <t>3266</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>40106</t>
+          <t>41796</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3071</t>
+          <t>3122</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>52001</t>
+          <t>51703</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2651</t>
+          <t>2709</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>52783</t>
+          <t>54689</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2633</t>
+          <t>2632</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>55578</t>
+          <t>55864</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2609</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>61062</t>
+          <t>62543</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>63069</t>
+          <t>64304</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1827,44 +1827,44 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>56672</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2594</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>54126</t>
+          <t>59494</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2550</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>58875</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1913,12 +1913,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1935,17 +1935,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>29596</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3722</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>34816</t>
+          <t>41677</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3306</t>
+          <t>3129</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>38606</t>
+          <t>57174</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>2584</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>56194</t>
+          <t>64388</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>63158</t>
+          <t>64630</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>63177</t>
+          <t>90903</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>1518</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>88106</t>
+          <t>105054</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>1284</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>101772</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2156,12 +2156,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2372,12 +2372,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2475,44 +2475,44 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48814</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2803</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>46207</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2821</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2556,17 +2556,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>111728</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>8666978</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>FierceRocket</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,14 +2576,14 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1141</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>140844</t>
+          <t>149786</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>59042</t>
+          <t>57991</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>2597</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>61089</t>
+          <t>62918</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,7 +443,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>2524</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>42757</t>
+          <t>44598</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>62522</t>
+          <t>60367</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2557</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5869</t>
+          <t>8021</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4537</t>
+          <t>4664</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9554</t>
+          <t>11070</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4360</t>
+          <t>4514</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11612</t>
+          <t>11694</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>4487</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12786</t>
+          <t>19154</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4226</t>
+          <t>4207</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>17544</t>
+          <t>24369</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4072</t>
+          <t>4052</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>38782</t>
+          <t>40373</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>3351</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>56911</t>
+          <t>58425</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>64189</t>
+          <t>65211</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12017</t>
+          <t>12571</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4258</t>
+          <t>4446</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>13602</t>
+          <t>13709</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4196</t>
+          <t>4397</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>15811</t>
+          <t>14210</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4122</t>
+          <t>4378</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>16243</t>
+          <t>15896</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4108</t>
+          <t>4312</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>17117</t>
+          <t>17452</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4083</t>
+          <t>4261</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20600</t>
+          <t>21091</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>4151</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20808</t>
+          <t>21811</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3995</t>
+          <t>4128</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>22048</t>
+          <t>23728</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>4072</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>23605</t>
+          <t>27640</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3949</t>
+          <t>3990</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>24383</t>
+          <t>28899</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3920</t>
+          <t>3974</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>31415</t>
+          <t>30111</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3649</t>
+          <t>3927</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>32501</t>
+          <t>31312</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3604</t>
+          <t>3872</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>38678</t>
+          <t>40915</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3305</t>
+          <t>3314</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>40542</t>
+          <t>42734</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3199</t>
+          <t>3188</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4987</t>
+          <t>5347</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8047</t>
+          <t>8481</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>4640</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8037</t>
+          <t>9222</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>4602</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8398</t>
+          <t>10420</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>4545</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9776</t>
+          <t>11430</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4350</t>
+          <t>4498</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>12906</t>
+          <t>13265</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>꧁SSS.TIGRESS꧂ᶻᵍˣ</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4417</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>13217</t>
+          <t>13561</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4209</t>
+          <t>4404</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>13444</t>
+          <t>13644</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4201</t>
+          <t>4400</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>14214</t>
+          <t>16449</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4175</t>
+          <t>4292</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>18104</t>
+          <t>16648</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>4287</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>18535</t>
+          <t>17075</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>꧁SSS.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4044</t>
+          <t>4274</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>26074</t>
+          <t>22471</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3859</t>
+          <t>4108</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>26854</t>
+          <t>25384</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3829</t>
+          <t>4022</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>26858</t>
+          <t>29487</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3829</t>
+          <t>3953</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>27893</t>
+          <t>33696</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3790</t>
+          <t>3754</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>36306</t>
+          <t>36066</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>3625</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>36618</t>
+          <t>36144</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3415</t>
+          <t>3621</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>39342</t>
+          <t>38896</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3266</t>
+          <t>3450</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>41796</t>
+          <t>41231</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3122</t>
+          <t>3294</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>51703</t>
+          <t>52258</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2709</t>
+          <t>2740</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>54689</t>
+          <t>55077</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2632</t>
+          <t>2660</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>55864</t>
+          <t>57366</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>62543</t>
+          <t>59304</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2574</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>64304</t>
+          <t>65320</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1827,7 +1827,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>56672</t>
+          <t>57841</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2594</t>
+          <t>2600</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>59494</t>
+          <t>57081</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>2614</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>29596</t>
+          <t>30570</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3722</t>
+          <t>3907</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>41677</t>
+          <t>43704</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3129</t>
+          <t>3121</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>57174</t>
+          <t>46834</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2584</t>
+          <t>2949</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>64388</t>
+          <t>57164</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2612</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>64630</t>
+          <t>66540</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,14 +2063,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2492</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>90903</t>
+          <t>93848</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>1510</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>105054</t>
+          <t>108402</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>1280</t>
         </is>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>48814</t>
+          <t>50501</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>111728</t>
+          <t>115244</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1154</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>149786</t>
+          <t>128486</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1020</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>159313</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>57991</t>
+          <t>57651</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2597</t>
+          <t>2625</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>62918</t>
+          <t>64109</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,7 +443,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>44598</t>
+          <t>45624</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3067</t>
+          <t>3083</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>60367</t>
+          <t>61342</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,17 +558,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8021</t>
+          <t>9677</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4664</t>
+          <t>4746</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11070</t>
+          <t>11780</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4514</t>
+          <t>4640</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11694</t>
+          <t>15035</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4487</t>
+          <t>4491</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>19154</t>
+          <t>16914</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4207</t>
+          <t>4418</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24369</t>
+          <t>19619</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4052</t>
+          <t>4319</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>40373</t>
+          <t>39369</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3351</t>
+          <t>3542</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>58425</t>
+          <t>58653</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2605</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>65211</t>
+          <t>65937</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12571</t>
+          <t>11586</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4446</t>
+          <t>4650</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>13709</t>
+          <t>12775</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4397</t>
+          <t>4591</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>14210</t>
+          <t>13272</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4378</t>
+          <t>4567</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>15896</t>
+          <t>20919</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4312</t>
+          <t>4276</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>17452</t>
+          <t>21558</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4261</t>
+          <t>4255</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21091</t>
+          <t>21858</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4151</t>
+          <t>4245</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21811</t>
+          <t>21882</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4128</t>
+          <t>4244</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23728</t>
+          <t>26545</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4072</t>
+          <t>4101</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>27640</t>
+          <t>27001</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3990</t>
+          <t>4089</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>28899</t>
+          <t>29768</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3974</t>
+          <t>4006</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30111</t>
+          <t>30265</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3927</t>
+          <t>3996</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>31312</t>
+          <t>31929</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3872</t>
+          <t>3983</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>40915</t>
+          <t>40271</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3314</t>
+          <t>3477</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>42734</t>
+          <t>40644</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3188</t>
+          <t>3446</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>5340</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8481</t>
+          <t>6629</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>35114520</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>13lur¹³</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>4907</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9222</t>
+          <t>8092</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>35114520</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13lur¹³</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4602</t>
+          <t>4827</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10420</t>
+          <t>9591</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4545</t>
+          <t>4752</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>11430</t>
+          <t>10309</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4498</t>
+          <t>4714</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>13265</t>
+          <t>12681</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>4595</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>13561</t>
+          <t>14871</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>何苦僧ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4404</t>
+          <t>4497</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>13644</t>
+          <t>15971</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>꧁SSS.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4400</t>
+          <t>4454</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>16449</t>
+          <t>18753</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4292</t>
+          <t>4350</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16648</t>
+          <t>20515</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>何苦僧ᶻᵍˣ</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4287</t>
+          <t>4288</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>17075</t>
+          <t>22230</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>꧁SSS.TIGRESS꧂ᶻᵍˣ</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4274</t>
+          <t>4233</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>22471</t>
+          <t>26140</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4108</t>
+          <t>4113</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>25384</t>
+          <t>28015</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4022</t>
+          <t>4059</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>29487</t>
+          <t>28269</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3953</t>
+          <t>4051</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>33696</t>
+          <t>32887</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3754</t>
+          <t>3954</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>36066</t>
+          <t>36360</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3625</t>
+          <t>3751</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>36144</t>
+          <t>38326</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>3619</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>38896</t>
+          <t>41070</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>3413</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>41231</t>
+          <t>41931</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3294</t>
+          <t>3350</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>52258</t>
+          <t>52611</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>2766</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>55077</t>
+          <t>54637</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>2702</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>57366</t>
+          <t>58443</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>59304</t>
+          <t>60309</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>65320</t>
+          <t>66059</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1827,7 +1827,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>57841</t>
+          <t>59348</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>2591</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>57081</t>
+          <t>56941</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2641</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>30570</t>
+          <t>31553</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3907</t>
+          <t>3988</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>43704</t>
+          <t>44861</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3121</t>
+          <t>3132</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>46834</t>
+          <t>47845</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>2958</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>57164</t>
+          <t>58470</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2612</t>
+          <t>2608</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>66540</t>
+          <t>65383</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,14 +2063,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2505</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>93848</t>
+          <t>95975</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>1508</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>108402</t>
+          <t>98869</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>1497</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1278</t>
         </is>
       </c>
     </row>
@@ -2156,12 +2156,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2475,7 +2475,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>50501</t>
+          <t>51743</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2795</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>115244</t>
+          <t>117592</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2576,14 +2576,14 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>1187</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>128486</t>
+          <t>134239</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2610,7 +2610,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>159313</t>
+          <t>169658</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>57651</t>
+          <t>58234</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2625</t>
+          <t>2645</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>64109</t>
+          <t>66173</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,7 +443,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2510</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>45624</t>
+          <t>47199</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>61342</t>
+          <t>62617</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,17 +558,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9677</t>
+          <t>9248</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4746</t>
+          <t>5021</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11780</t>
+          <t>12104</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>4860</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>15035</t>
+          <t>15904</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4491</t>
+          <t>4663</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16914</t>
+          <t>15974</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4418</t>
+          <t>4660</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19619</t>
+          <t>17775</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4319</t>
+          <t>4580</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>39369</t>
+          <t>41325</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3542</t>
+          <t>3561</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>58653</t>
+          <t>53795</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>2778</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>65937</t>
+          <t>66996</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11586</t>
+          <t>12569</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4650</t>
+          <t>4832</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12775</t>
+          <t>13796</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4591</t>
+          <t>4766</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13272</t>
+          <t>16446</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4567</t>
+          <t>4640</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20919</t>
+          <t>17384</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4276</t>
+          <t>4596</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21558</t>
+          <t>17435</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>4594</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21858</t>
+          <t>19382</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4245</t>
+          <t>4516</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21882</t>
+          <t>21168</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4244</t>
+          <t>4447</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>26545</t>
+          <t>25883</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>4275</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>27001</t>
+          <t>30640</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4089</t>
+          <t>4116</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>29768</t>
+          <t>34408</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>3996</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30265</t>
+          <t>34422</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1098,17 +1098,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>31929</t>
+          <t>35255</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3983</t>
+          <t>3990</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>40271</t>
+          <t>36989</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>3915</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>40644</t>
+          <t>42196</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3446</t>
+          <t>3486</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5340</t>
+          <t>5982</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6629</t>
+          <t>8495</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4907</t>
+          <t>5065</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8092</t>
+          <t>9176</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>何苦僧ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4827</t>
+          <t>5026</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9591</t>
+          <t>9475</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4752</t>
+          <t>5008</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10309</t>
+          <t>10470</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4714</t>
+          <t>4956</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>12681</t>
+          <t>10669</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>꧁SSS.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>4944</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14871</t>
+          <t>10982</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>何苦僧ᶻᵍˣ</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4497</t>
+          <t>4925</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>15971</t>
+          <t>12417</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>꧁SSS.TIGRESS꧂ᶻᵍˣ</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4454</t>
+          <t>4841</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>18753</t>
+          <t>14539</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4350</t>
+          <t>4726</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20515</t>
+          <t>18701</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>4541</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>22230</t>
+          <t>21934</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4233</t>
+          <t>4416</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>26140</t>
+          <t>27266</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4113</t>
+          <t>4226</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>28015</t>
+          <t>28225</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4059</t>
+          <t>4196</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>28269</t>
+          <t>29173</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>4165</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>32887</t>
+          <t>34332</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1577,14 +1577,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3954</t>
+          <t>3997</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>36360</t>
+          <t>37002</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3751</t>
+          <t>3913</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>38326</t>
+          <t>37812</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3619</t>
+          <t>3853</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>41070</t>
+          <t>39702</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3413</t>
+          <t>3699</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>41931</t>
+          <t>42955</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3350</t>
+          <t>3418</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>52611</t>
+          <t>49966</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2766</t>
+          <t>2930</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>54637</t>
+          <t>55197</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2702</t>
+          <t>2731</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>58443</t>
+          <t>58440</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2640</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>60309</t>
+          <t>60060</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>2605</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>66059</t>
+          <t>67090</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1827,7 +1827,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>59348</t>
+          <t>59754</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2591</t>
+          <t>2611</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>56941</t>
+          <t>55321</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2726</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>31553</t>
+          <t>30713</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3988</t>
+          <t>4114</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>44861</t>
+          <t>42656</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3132</t>
+          <t>3446</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>47845</t>
+          <t>49395</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2958</t>
+          <t>2957</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>58470</t>
+          <t>59976</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2608</t>
+          <t>2606</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>65383</t>
+          <t>66692</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,14 +2063,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2505</t>
+          <t>2502</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>95975</t>
+          <t>96665</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>1528</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>98869</t>
+          <t>97337</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>1522</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>111486</t>
+          <t>115433</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>1275</t>
         </is>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>51743</t>
+          <t>53222</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2795</t>
+          <t>2797</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>117592</t>
+          <t>93686</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2576,14 +2576,14 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1187</t>
+          <t>1574</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>134239</t>
+          <t>141318</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2610,7 +2610,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>169658</t>
+          <t>181876</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>58234</t>
+          <t>57903</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>2673</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>66173</t>
+          <t>67007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,7 +443,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>2506</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>47199</t>
+          <t>48007</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>62617</t>
+          <t>63297</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9248</t>
+          <t>13101</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5021</t>
+          <t>4899</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12104</t>
+          <t>13694</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4860</t>
+          <t>4868</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>15904</t>
+          <t>16081</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4663</t>
+          <t>4749</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15974</t>
+          <t>18749</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4660</t>
+          <t>4630</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>17775</t>
+          <t>42095</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4580</t>
+          <t>3577</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>41325</t>
+          <t>54506</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3561</t>
+          <t>2778</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>53795</t>
+          <t>67548</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2778</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>66996</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>12707</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4919</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12569</t>
+          <t>13429</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4832</t>
+          <t>4882</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>13796</t>
+          <t>14024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>4851</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16446</t>
+          <t>14450</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>4828</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17384</t>
+          <t>19451</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4596</t>
+          <t>4600</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>17435</t>
+          <t>19738</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>4590</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19382</t>
+          <t>21813</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4516</t>
+          <t>4509</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21168</t>
+          <t>29353</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4447</t>
+          <t>4234</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25883</t>
+          <t>29471</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>4230</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30640</t>
+          <t>32132</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4116</t>
+          <t>4137</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>34408</t>
+          <t>33150</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>4101</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>34422</t>
+          <t>34798</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>4042</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>35255</t>
+          <t>35335</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3990</t>
+          <t>4024</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>36989</t>
+          <t>40705</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>3707</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>42196</t>
+          <t>5002</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>35114520</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>13lur¹³</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3486</t>
+          <t>5410</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>7990</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5982</t>
+          <t>5191</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8495</t>
+          <t>10378</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>35114520</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13lur¹³</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5065</t>
+          <t>5048</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9176</t>
+          <t>12737</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>何苦僧ᶻᵍˣ</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5026</t>
+          <t>4918</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9475</t>
+          <t>12871</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>何苦僧ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5008</t>
+          <t>4911</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10470</t>
+          <t>13279</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>4889</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10669</t>
+          <t>17136</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>꧁SSS.TIGRESS꧂ᶻᵍˣ</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4944</t>
+          <t>4701</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10982</t>
+          <t>17610</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4925</t>
+          <t>4681</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>12417</t>
+          <t>20122</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4841</t>
+          <t>4574</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>14539</t>
+          <t>30182</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4726</t>
+          <t>4205</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>18701</t>
+          <t>30749</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4541</t>
+          <t>4187</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>21934</t>
+          <t>32547</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4416</t>
+          <t>4123</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>27266</t>
+          <t>36693</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4226</t>
+          <t>3993</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>28225</t>
+          <t>36989</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4196</t>
+          <t>3990</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>29173</t>
+          <t>38637</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4165</t>
+          <t>3896</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>34332</t>
+          <t>39191</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>3846</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>37002</t>
+          <t>41686</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3913</t>
+          <t>3617</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>37812</t>
+          <t>49274</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>3003</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>39702</t>
+          <t>56017</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>2728</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>42955</t>
+          <t>57087</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3418</t>
+          <t>2696</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>49966</t>
+          <t>60745</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2930</t>
+          <t>2605</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>55197</t>
+          <t>67650</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,105 +1739,105 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2731</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>58440</t>
+          <t>60736</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2640</t>
+          <t>2605</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>60060</t>
+          <t>53081</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>2832</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>67090</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>59754</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2611</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>55321</t>
+          <t>32557</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2726</t>
+          <t>4123</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>41728</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3614</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>50192</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2957</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>30713</t>
+          <t>58910</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4114</t>
+          <t>2647</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>42656</t>
+          <t>67232</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3446</t>
+          <t>2502</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>49395</t>
+          <t>98458</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2957</t>
+          <t>1524</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>59976</t>
+          <t>99017</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>1518</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>66692</t>
+          <t>114362</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>1306</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>96665</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1528</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>97337</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>115433</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2156,12 +2156,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2372,12 +2372,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2394,27 +2394,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54167</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2790</t>
         </is>
       </c>
     </row>
@@ -2426,17 +2426,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2453,17 +2453,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2475,17 +2475,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>53222</t>
+          <t>93030</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>8666978</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>FierceRocket</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2797</t>
+          <t>1610</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>145219</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1020</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>188454</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>93686</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>8666978</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>FierceRocket</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>141318</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>181876</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2777,12 +2777,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2845,87 +2845,6 @@
         </is>
       </c>
       <c r="E92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>59082827</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Player-59082827</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>59106471</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>anime</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>59112086</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>57903</t>
+          <t>56676</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2673</t>
+          <t>2718</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>67007</t>
+          <t>67267</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,7 +443,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2506</t>
+          <t>2505</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>48007</t>
+          <t>48358</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>63297</t>
+          <t>42092</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2557</t>
+          <t>3623</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>13101</t>
+          <t>9451</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4899</t>
+          <t>5211</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13694</t>
+          <t>16074</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4868</t>
+          <t>4822</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16081</t>
+          <t>18457</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4749</t>
+          <t>4705</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18749</t>
+          <t>20911</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4630</t>
+          <t>4599</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>42095</t>
+          <t>39298</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3577</t>
+          <t>3897</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>54506</t>
+          <t>54855</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>67548</t>
+          <t>67736</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -774,17 +774,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12707</t>
+          <t>13639</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4919</t>
+          <t>4956</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>13429</t>
+          <t>14954</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>14024</t>
+          <t>15615</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4851</t>
+          <t>4845</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>14450</t>
+          <t>16410</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4828</t>
+          <t>4803</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19451</t>
+          <t>18482</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4600</t>
+          <t>4704</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>19738</t>
+          <t>18980</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4590</t>
+          <t>4684</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21813</t>
+          <t>19778</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4509</t>
+          <t>4649</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>29353</t>
+          <t>25886</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4234</t>
+          <t>4399</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>29471</t>
+          <t>29528</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4230</t>
+          <t>4263</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>32132</t>
+          <t>31999</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4137</t>
+          <t>4175</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>33150</t>
+          <t>32612</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>4154</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>34798</t>
+          <t>35555</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4042</t>
+          <t>4047</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>35335</t>
+          <t>37266</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4024</t>
+          <t>3995</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>40705</t>
+          <t>41273</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3707</t>
+          <t>3705</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5002</t>
+          <t>6749</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>5403</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7990</t>
+          <t>8353</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5191</t>
+          <t>5283</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10378</t>
+          <t>10572</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5048</t>
+          <t>5143</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12737</t>
+          <t>11092</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4918</t>
+          <t>5111</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12871</t>
+          <t>13201</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>何苦僧ᶻᵍˣ</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4911</t>
+          <t>4981</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>13279</t>
+          <t>14300</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4889</t>
+          <t>4918</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>17136</t>
+          <t>19050</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4701</t>
+          <t>4681</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>17610</t>
+          <t>21744</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4681</t>
+          <t>4563</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20122</t>
+          <t>27813</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4574</t>
+          <t>4326</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30182</t>
+          <t>30259</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>4235</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30749</t>
+          <t>33902</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4187</t>
+          <t>4106</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>32547</t>
+          <t>35106</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4123</t>
+          <t>4063</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>36693</t>
+          <t>37884</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>3988</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>36989</t>
+          <t>37972</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3990</t>
+          <t>3987</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>38637</t>
+          <t>39500</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3896</t>
+          <t>3876</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>39191</t>
+          <t>41961</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3846</t>
+          <t>3635</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>41686</t>
+          <t>48934</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3617</t>
+          <t>3043</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>49274</t>
+          <t>56410</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3003</t>
+          <t>2726</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>56017</t>
+          <t>57441</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>2696</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>57087</t>
+          <t>59693</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2696</t>
+          <t>2636</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>60745</t>
+          <t>67830</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,51 +1712,51 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>67650</t>
+          <t>61095</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2604</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>60736</t>
+          <t>52683</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>2862</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>53081</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1827,17 +1827,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>41575</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3674</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>32557</t>
+          <t>50640</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4123</t>
+          <t>2956</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>41728</t>
+          <t>59249</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3614</t>
+          <t>2647</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>50192</t>
+          <t>67492</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2957</t>
+          <t>2501</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>58910</t>
+          <t>99157</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1522</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>67232</t>
+          <t>99584</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>1517</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>98458</t>
+          <t>115026</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>1306</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>99017</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>114362</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2129,12 +2129,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2340,27 +2340,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54564</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2787</t>
         </is>
       </c>
     </row>
@@ -2372,17 +2372,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2394,17 +2394,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>54167</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2790</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>92724</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>8666978</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>FierceRocket</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1626</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>146460</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1020</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>93030</t>
+          <t>190643</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8666978</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>FierceRocket</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>145219</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>188454</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2777,12 +2777,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2791,60 +2791,6 @@
         </is>
       </c>
       <c r="E90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>59106471</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>anime</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>59112086</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>56676</t>
+          <t>56077</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2718</t>
+          <t>2747</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>67267</t>
+          <t>67680</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,7 +443,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2505</t>
+          <t>2503</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>48358</t>
+          <t>48629</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>42092</t>
+          <t>42454</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9451</t>
+          <t>11054</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5211</t>
+          <t>5142</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16074</t>
+          <t>16579</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4822</t>
+          <t>4832</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18457</t>
+          <t>18886</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4705</t>
+          <t>4721</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20911</t>
+          <t>21298</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4599</t>
+          <t>4619</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>39298</t>
+          <t>39506</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3897</t>
+          <t>3923</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>54855</t>
+          <t>55136</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>67736</t>
+          <t>67999</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -774,17 +774,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13639</t>
+          <t>12391</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>5059</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14954</t>
+          <t>13144</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4882</t>
+          <t>5016</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15615</t>
+          <t>14250</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4845</t>
+          <t>4956</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16410</t>
+          <t>17144</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -882,7 +882,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>18482</t>
+          <t>19242</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4704</t>
+          <t>4705</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18980</t>
+          <t>20801</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4684</t>
+          <t>4639</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19778</t>
+          <t>20747</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4649</t>
+          <t>4641</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>25886</t>
+          <t>26715</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>4403</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>29528</t>
+          <t>29797</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4263</t>
+          <t>4289</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>31999</t>
+          <t>32599</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4175</t>
+          <t>4187</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>32612</t>
+          <t>33237</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4154</t>
+          <t>4164</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>35555</t>
+          <t>37613</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4047</t>
+          <t>4000</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>37266</t>
+          <t>37978</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>41273</t>
+          <t>41684</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>3703</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6749</t>
+          <t>5479</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5403</t>
+          <t>5537</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8353</t>
+          <t>8408</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5283</t>
+          <t>5306</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10572</t>
+          <t>11031</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11092</t>
+          <t>11352</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>5123</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>13201</t>
+          <t>14937</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4981</t>
+          <t>4916</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14300</t>
+          <t>14903</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1314,7 +1314,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>19050</t>
+          <t>19807</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>21744</t>
+          <t>23244</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4563</t>
+          <t>4537</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>27813</t>
+          <t>25873</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4326</t>
+          <t>4436</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30259</t>
+          <t>26802</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4235</t>
+          <t>4399</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>33902</t>
+          <t>32086</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4106</t>
+          <t>4206</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>35106</t>
+          <t>32867</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4063</t>
+          <t>4177</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>37884</t>
+          <t>33655</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3988</t>
+          <t>4149</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>37972</t>
+          <t>35742</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>4071</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>39500</t>
+          <t>36035</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3876</t>
+          <t>4060</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>41961</t>
+          <t>39974</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3635</t>
+          <t>3874</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>48934</t>
+          <t>42024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>3666</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>56410</t>
+          <t>48388</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2726</t>
+          <t>3103</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>57441</t>
+          <t>56762</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2696</t>
+          <t>2726</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>59693</t>
+          <t>57743</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2636</t>
+          <t>2696</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>67830</t>
+          <t>59389</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,51 +1712,51 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2652</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>61095</t>
+          <t>68096</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2604</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>52683</t>
+          <t>60158</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2862</t>
+          <t>2632</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52249</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2893</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1827,17 +1827,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>41575</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3674</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>50640</t>
+          <t>41973</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2956</t>
+          <t>3673</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>59249</t>
+          <t>50764</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>2963</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>67492</t>
+          <t>59629</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>2645</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>99157</t>
+          <t>67838</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>99584</t>
+          <t>99900</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>1520</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>115026</t>
+          <t>100494</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>1514</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>115858</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1305</t>
         </is>
       </c>
     </row>
@@ -2048,12 +2048,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2129,12 +2129,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2340,44 +2340,44 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>54564</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2787</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54923</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2785</t>
         </is>
       </c>
     </row>
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2421,17 +2421,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>92724</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8666978</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>FierceRocket</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>146460</t>
+          <t>93234</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>8666978</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>FierceRocket</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>1626</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>190643</t>
+          <t>147858</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1020</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>192742</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2777,20 +2777,47 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>59106471</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>anime</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>59112086</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>sigma</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>三馆</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>56077</t>
+          <t>55646</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2747</t>
+          <t>2794</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>67680</t>
+          <t>67800</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,7 +443,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>2512</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>48629</t>
+          <t>48940</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3083</t>
+          <t>3131</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>42454</t>
+          <t>43550</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11054</t>
+          <t>10639</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5142</t>
+          <t>5358</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16579</t>
+          <t>12283</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4832</t>
+          <t>5246</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18886</t>
+          <t>17942</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4721</t>
+          <t>4916</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21298</t>
+          <t>18708</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>4878</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>39506</t>
+          <t>40919</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3923</t>
+          <t>3922</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>55136</t>
+          <t>51974</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2778</t>
+          <t>2950</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>67999</t>
+          <t>68666</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -774,17 +774,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12391</t>
+          <t>14151</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5059</t>
+          <t>5126</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>13144</t>
+          <t>16274</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5016</t>
+          <t>5003</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>16470</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>4993</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>17144</t>
+          <t>17539</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4803</t>
+          <t>4937</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19242</t>
+          <t>20327</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4705</t>
+          <t>4796</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20801</t>
+          <t>20680</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4639</t>
+          <t>4780</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20747</t>
+          <t>22103</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4641</t>
+          <t>4717</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>26715</t>
+          <t>30152</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4403</t>
+          <t>4383</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>29797</t>
+          <t>30942</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4289</t>
+          <t>4351</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>32599</t>
+          <t>32496</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4187</t>
+          <t>4288</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>33237</t>
+          <t>33742</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4164</t>
+          <t>4238</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>37613</t>
+          <t>34882</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>4192</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>37978</t>
+          <t>39074</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3995</t>
+          <t>4013</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>41684</t>
+          <t>42885</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>3700</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5479</t>
+          <t>5964</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5537</t>
+          <t>5721</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8408</t>
+          <t>8167</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5306</t>
+          <t>5529</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11031</t>
+          <t>11499</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5143</t>
+          <t>5300</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11352</t>
+          <t>11901</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5123</t>
+          <t>5273</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14937</t>
+          <t>13365</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>5177</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14903</t>
+          <t>14892</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4918</t>
+          <t>5081</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>19807</t>
+          <t>18982</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4681</t>
+          <t>4863</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>23244</t>
+          <t>20178</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4537</t>
+          <t>4803</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>25873</t>
+          <t>27043</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,14 +1388,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>4507</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>26802</t>
+          <t>30182</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>4382</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>32086</t>
+          <t>32742</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4206</t>
+          <t>4277</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>32867</t>
+          <t>33299</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4177</t>
+          <t>4254</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>33655</t>
+          <t>33472</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4149</t>
+          <t>4248</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>35742</t>
+          <t>36852</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4071</t>
+          <t>4110</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>36035</t>
+          <t>38712</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4060</t>
+          <t>4031</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>39974</t>
+          <t>40152</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1577,14 +1577,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3874</t>
+          <t>3986</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>42024</t>
+          <t>41939</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3666</t>
+          <t>3809</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>48388</t>
+          <t>48556</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3161</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>56762</t>
+          <t>57828</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2726</t>
+          <t>2722</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>57743</t>
+          <t>58683</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1692,7 +1692,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>59389</t>
+          <t>59327</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2652</t>
+          <t>2678</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>68096</t>
+          <t>68759</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1746,7 +1746,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>60158</t>
+          <t>61278</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2632</t>
+          <t>2626</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>52249</t>
+          <t>51536</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2893</t>
+          <t>2972</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>41973</t>
+          <t>40638</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3673</t>
+          <t>3953</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>50764</t>
+          <t>51740</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>2962</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>59629</t>
+          <t>59999</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>2658</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>67838</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>99900</t>
+          <t>102092</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>1513</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>100494</t>
+          <t>102609</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>1507</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>115858</t>
+          <t>111512</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1305</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>117947</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1304</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2129,12 +2129,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2367,7 +2367,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>54923</t>
+          <t>55932</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2785</t>
+          <t>2784</t>
         </is>
       </c>
     </row>
@@ -2448,17 +2448,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>93234</t>
+          <t>88587</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8666978</t>
+          <t>59304163</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>FierceRocket</t>
+          <t>Hong</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1866</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>147858</t>
+          <t>93911</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>8666978</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>FierceRocket</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>1641</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>192742</t>
+          <t>151966</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1020</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>199595</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2777,12 +2777,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2804,20 +2804,47 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>59106471</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>anime</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
           <t>59112086</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>sigma</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>三馆</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>55646</t>
+          <t>56264</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2794</t>
+          <t>2792</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>67800</t>
+          <t>68294</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,7 +443,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2512</t>
+          <t>2511</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>48940</t>
+          <t>49558</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3131</t>
+          <t>3130</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>43550</t>
+          <t>44235</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3623</t>
+          <t>3624</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10639</t>
+          <t>10269</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5358</t>
+          <t>5544</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12283</t>
+          <t>13043</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5246</t>
+          <t>5336</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17942</t>
+          <t>17536</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>5046</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18708</t>
+          <t>18857</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4878</t>
+          <t>4981</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>40919</t>
+          <t>31607</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3922</t>
+          <t>4390</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>51974</t>
+          <t>52536</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>68666</t>
+          <t>66865</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2530</t>
         </is>
       </c>
     </row>
@@ -774,17 +774,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14151</t>
+          <t>13899</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5126</t>
+          <t>5275</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16274</t>
+          <t>16078</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5003</t>
+          <t>5134</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16470</t>
+          <t>16303</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4993</t>
+          <t>5119</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>17539</t>
+          <t>16473</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4937</t>
+          <t>5107</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20327</t>
+          <t>20644</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4796</t>
+          <t>4889</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20680</t>
+          <t>21754</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4780</t>
+          <t>4831</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22103</t>
+          <t>21945</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4717</t>
+          <t>4819</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30152</t>
+          <t>29718</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4383</t>
+          <t>4470</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30942</t>
+          <t>32368</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4351</t>
+          <t>4358</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>32496</t>
+          <t>32939</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>4332</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>33742</t>
+          <t>33224</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>34882</t>
+          <t>37501</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4192</t>
+          <t>4132</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>39074</t>
+          <t>39296</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4013</t>
+          <t>4052</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>42885</t>
+          <t>43576</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3700</t>
+          <t>3701</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5964</t>
+          <t>6978</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5815</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8167</t>
+          <t>7739</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5529</t>
+          <t>5747</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11499</t>
+          <t>10982</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5300</t>
+          <t>5495</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11901</t>
+          <t>12217</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5273</t>
+          <t>5399</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>13365</t>
+          <t>12825</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5177</t>
+          <t>5352</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14892</t>
+          <t>13201</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5081</t>
+          <t>5324</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>18982</t>
+          <t>18602</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4863</t>
+          <t>4993</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20178</t>
+          <t>20140</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4803</t>
+          <t>4915</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>27043</t>
+          <t>28352</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,14 +1388,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4507</t>
+          <t>4526</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30182</t>
+          <t>30575</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4382</t>
+          <t>4435</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>32742</t>
+          <t>31648</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4277</t>
+          <t>4388</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>33299</t>
+          <t>32163</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4254</t>
+          <t>4367</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>33472</t>
+          <t>32593</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4248</t>
+          <t>4348</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>36852</t>
+          <t>35021</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4110</t>
+          <t>4243</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>38712</t>
+          <t>39392</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4031</t>
+          <t>4047</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>40152</t>
+          <t>40447</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3986</t>
+          <t>3996</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>41939</t>
+          <t>40619</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3809</t>
+          <t>3994</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>48556</t>
+          <t>41848</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3161</t>
+          <t>3909</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>57828</t>
+          <t>47596</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2722</t>
+          <t>3288</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>58683</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2696</t>
+          <t>3174</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>59327</t>
+          <t>58240</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2678</t>
+          <t>2726</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>68759</t>
+          <t>69235</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1746,7 +1746,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>61278</t>
+          <t>61902</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2626</t>
+          <t>2624</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>51536</t>
+          <t>51007</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2972</t>
+          <t>3030</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>40638</t>
+          <t>41547</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3953</t>
+          <t>3947</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>51740</t>
+          <t>50965</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2962</t>
+          <t>3034</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>59999</t>
+          <t>59477</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2658</t>
+          <t>2687</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>69768</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2496</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>102092</t>
+          <t>103635</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>1506</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>102609</t>
+          <t>103736</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>1504</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>111512</t>
+          <t>110408</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1428</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>117947</t>
+          <t>119310</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>1302</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>55932</t>
+          <t>49726</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>3118</t>
         </is>
       </c>
     </row>
@@ -2448,7 +2448,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>88587</t>
+          <t>89275</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2468,14 +2468,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>1862</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>93911</t>
+          <t>94993</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1636</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>151966</t>
+          <t>154507</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>199595</t>
+          <t>204086</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>56264</t>
+          <t>56611</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2792</t>
+          <t>2808</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>68294</t>
+          <t>67650</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,7 +443,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2511</t>
+          <t>2528</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>49558</t>
+          <t>50340</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>44235</t>
+          <t>45098</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10269</t>
+          <t>10580</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5544</t>
+          <t>5709</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13043</t>
+          <t>13468</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5336</t>
+          <t>5469</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17536</t>
+          <t>17366</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5046</t>
+          <t>5201</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18857</t>
+          <t>18596</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4981</t>
+          <t>5129</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31607</t>
+          <t>29561</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4390</t>
+          <t>4572</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>52536</t>
+          <t>53354</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2950</t>
+          <t>2949</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>66865</t>
+          <t>67477</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -774,7 +774,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13899</t>
+          <t>13929</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5275</t>
+          <t>5432</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16078</t>
+          <t>15948</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5134</t>
+          <t>5290</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16303</t>
+          <t>16465</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5119</t>
+          <t>5256</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16473</t>
+          <t>16561</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5107</t>
+          <t>5252</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20644</t>
+          <t>20437</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4889</t>
+          <t>5029</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21754</t>
+          <t>21281</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4985</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21945</t>
+          <t>23067</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4819</t>
+          <t>4884</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>29718</t>
+          <t>30083</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4470</t>
+          <t>4550</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>32368</t>
+          <t>31175</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4358</t>
+          <t>4505</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>32939</t>
+          <t>31407</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4332</t>
+          <t>4496</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>33224</t>
+          <t>33215</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4414</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>37501</t>
+          <t>39503</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4132</t>
+          <t>4108</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>39296</t>
+          <t>39770</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4052</t>
+          <t>4097</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>43576</t>
+          <t>44212</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>3729</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6978</t>
+          <t>5930</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5815</t>
+          <t>6139</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7739</t>
+          <t>8090</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5747</t>
+          <t>5917</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10982</t>
+          <t>11580</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5495</t>
+          <t>5631</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12217</t>
+          <t>12071</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5399</t>
+          <t>5590</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12825</t>
+          <t>12344</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5352</t>
+          <t>5564</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>13201</t>
+          <t>14313</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5324</t>
+          <t>5400</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>18602</t>
+          <t>17893</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4993</t>
+          <t>5169</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20140</t>
+          <t>20033</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4915</t>
+          <t>5052</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>28352</t>
+          <t>29670</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>4567</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30575</t>
+          <t>30904</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4435</t>
+          <t>4515</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>31648</t>
+          <t>31223</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4388</t>
+          <t>4503</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>32163</t>
+          <t>32669</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4367</t>
+          <t>4439</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>32593</t>
+          <t>33216</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4348</t>
+          <t>4414</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>35021</t>
+          <t>36512</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4243</t>
+          <t>4256</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>39392</t>
+          <t>39491</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4047</t>
+          <t>4109</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>40447</t>
+          <t>40573</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>4051</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>40619</t>
+          <t>41966</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>3990</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>41848</t>
+          <t>42463</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3909</t>
+          <t>3954</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>47596</t>
+          <t>42825</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3288</t>
+          <t>3908</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>49131</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3174</t>
+          <t>3230</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>58240</t>
+          <t>58033</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2726</t>
+          <t>2758</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>69235</t>
+          <t>67347</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2532</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>61902</t>
+          <t>61638</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2624</t>
+          <t>2649</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>51007</t>
+          <t>50508</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>3119</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>41547</t>
+          <t>42412</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3947</t>
+          <t>3960</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>50965</t>
+          <t>51032</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>3080</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>59477</t>
+          <t>58739</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2687</t>
+          <t>2734</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>69768</t>
+          <t>68005</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2496</t>
+          <t>2522</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>103635</t>
+          <t>105082</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>1503</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>103736</t>
+          <t>106741</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>110408</t>
+          <t>109637</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1428</t>
+          <t>1470</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>119310</t>
+          <t>121110</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2367,7 +2367,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>49726</t>
+          <t>50398</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3118</t>
+          <t>3127</t>
         </is>
       </c>
     </row>
@@ -2448,7 +2448,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>89275</t>
+          <t>89788</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2468,14 +2468,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>1888</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>94993</t>
+          <t>96275</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>1635</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>154507</t>
+          <t>158270</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>204086</t>
+          <t>210360</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>56611</t>
+          <t>56717</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2807</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>67650</t>
+          <t>67692</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>50340</t>
+          <t>50410</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>45098</t>
+          <t>45169</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10580</t>
+          <t>10683</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5709</t>
+          <t>5707</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13468</t>
+          <t>13943</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>5440</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17366</t>
+          <t>17494</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18596</t>
+          <t>18715</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>29561</t>
+          <t>29166</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>4598</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>53354</t>
+          <t>53432</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>67477</t>
+          <t>67524</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -774,7 +774,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13929</t>
+          <t>14035</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -801,17 +801,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>15948</t>
+          <t>15987</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5290</t>
+          <t>5295</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16465</t>
+          <t>16083</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5256</t>
+          <t>5290</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16561</t>
+          <t>16743</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5252</t>
+          <t>5249</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20437</t>
+          <t>20605</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5029</t>
+          <t>5028</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21281</t>
+          <t>21038</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4985</t>
+          <t>5004</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>23067</t>
+          <t>23341</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4884</t>
+          <t>4879</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30083</t>
+          <t>30299</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -990,17 +990,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>31175</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4505</t>
+          <t>4497</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>31407</t>
+          <t>32108</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4496</t>
+          <t>4475</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>33215</t>
+          <t>33535</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4408</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>39503</t>
+          <t>39307</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4108</t>
+          <t>4124</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>39770</t>
+          <t>39944</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4097</t>
+          <t>4094</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>44212</t>
+          <t>44294</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1152,7 +1152,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5930</t>
+          <t>6022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6139</t>
+          <t>6132</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8090</t>
+          <t>8166</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11580</t>
+          <t>11171</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5631</t>
+          <t>5669</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12071</t>
+          <t>12152</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12344</t>
+          <t>12412</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1287,7 +1287,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14313</t>
+          <t>14877</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5400</t>
+          <t>5367</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>17893</t>
+          <t>18029</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20033</t>
+          <t>20287</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5052</t>
+          <t>5046</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>29670</t>
+          <t>28680</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4567</t>
+          <t>4619</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30904</t>
+          <t>31219</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4515</t>
+          <t>4513</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>31223</t>
+          <t>31702</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4503</t>
+          <t>4493</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>32669</t>
+          <t>33042</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4439</t>
+          <t>4431</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>33216</t>
+          <t>33718</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4399</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>36512</t>
+          <t>36727</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4256</t>
+          <t>4254</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>39491</t>
+          <t>39626</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>40573</t>
+          <t>40682</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1584,7 +1584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>41966</t>
+          <t>42068</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1611,7 +1611,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>42463</t>
+          <t>42558</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3954</t>
+          <t>3953</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>42825</t>
+          <t>42899</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>49131</t>
+          <t>49208</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1692,7 +1692,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>58033</t>
+          <t>57184</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>2790</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>67347</t>
+          <t>67400</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1746,7 +1746,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>61638</t>
+          <t>61723</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2649</t>
+          <t>2648</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>50508</t>
+          <t>50581</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1854,7 +1854,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>42412</t>
+          <t>42499</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>51032</t>
+          <t>51108</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>58739</t>
+          <t>58860</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2734</t>
+          <t>2732</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>68005</t>
+          <t>68060</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1962,7 +1962,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>105082</t>
+          <t>105207</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>106741</t>
+          <t>106852</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2016,7 +2016,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>109637</t>
+          <t>109737</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2043,7 +2043,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>121110</t>
+          <t>121250</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2367,7 +2367,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>50398</t>
+          <t>46939</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3127</t>
+          <t>3431</t>
         </is>
       </c>
     </row>
@@ -2448,7 +2448,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>89788</t>
+          <t>89649</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2468,14 +2468,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>1904</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>96275</t>
+          <t>96375</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2502,7 +2502,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>158270</t>
+          <t>158555</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>210360</t>
+          <t>210794</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>56717</t>
+          <t>57535</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2807</t>
+          <t>2802</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>67692</t>
+          <t>65307</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,7 +443,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>2579</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>50410</t>
+          <t>51129</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>45169</t>
+          <t>45879</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3624</t>
+          <t>3625</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10683</t>
+          <t>11046</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5707</t>
+          <t>5860</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13943</t>
+          <t>13753</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5440</t>
+          <t>5596</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17494</t>
+          <t>19617</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5201</t>
+          <t>5205</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18715</t>
+          <t>20078</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5129</t>
+          <t>5180</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>29166</t>
+          <t>31056</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4598</t>
+          <t>4596</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>53432</t>
+          <t>53777</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>2965</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>67524</t>
+          <t>67104</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>2546</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14035</t>
+          <t>15220</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5432</t>
+          <t>5478</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>15987</t>
+          <t>15974</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5295</t>
+          <t>5421</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16083</t>
+          <t>16327</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5290</t>
+          <t>5398</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16743</t>
+          <t>16379</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5249</t>
+          <t>5395</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20605</t>
+          <t>21354</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5028</t>
+          <t>5101</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21038</t>
+          <t>21413</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5004</t>
+          <t>5098</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>23341</t>
+          <t>21640</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>5085</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30299</t>
+          <t>31277</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4550</t>
+          <t>4587</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>32879</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4497</t>
+          <t>4519</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>32108</t>
+          <t>33167</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>4507</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>33535</t>
+          <t>33064</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4408</t>
+          <t>4511</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>39307</t>
+          <t>38182</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4124</t>
+          <t>4246</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>39944</t>
+          <t>39143</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4094</t>
+          <t>4192</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>44294</t>
+          <t>41362</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3729</t>
+          <t>4071</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6022</t>
+          <t>5761</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6132</t>
+          <t>6369</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8166</t>
+          <t>8381</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5917</t>
+          <t>6075</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11171</t>
+          <t>9819</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5669</t>
+          <t>5959</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12152</t>
+          <t>11891</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5779</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12412</t>
+          <t>12659</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5564</t>
+          <t>5702</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14877</t>
+          <t>12820</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5367</t>
+          <t>5686</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>18029</t>
+          <t>17604</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5169</t>
+          <t>5316</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20287</t>
+          <t>19041</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5046</t>
+          <t>5239</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>28680</t>
+          <t>29886</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,14 +1388,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>4648</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>31219</t>
+          <t>30627</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4513</t>
+          <t>4614</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>31702</t>
+          <t>32291</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4493</t>
+          <t>4543</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>33042</t>
+          <t>33771</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>4480</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>33718</t>
+          <t>33805</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>4478</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>36727</t>
+          <t>33904</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4254</t>
+          <t>4472</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>39626</t>
+          <t>35726</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>4377</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>40682</t>
+          <t>36794</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>4316</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>42068</t>
+          <t>39798</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3990</t>
+          <t>4158</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>42558</t>
+          <t>41067</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3953</t>
+          <t>4087</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>42899</t>
+          <t>41580</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3908</t>
+          <t>4056</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>49208</t>
+          <t>48765</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3230</t>
+          <t>3322</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>57184</t>
+          <t>57011</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2790</t>
+          <t>2821</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>67400</t>
+          <t>67993</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1746,7 +1746,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>61723</t>
+          <t>61840</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2648</t>
+          <t>2661</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>50581</t>
+          <t>50456</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3119</t>
+          <t>3181</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>42499</t>
+          <t>43093</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>3982</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>51108</t>
+          <t>47058</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3080</t>
+          <t>3497</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>58860</t>
+          <t>59594</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2732</t>
+          <t>2729</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>68060</t>
+          <t>68751</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2522</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>105207</t>
+          <t>108824</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1498</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>106852</t>
+          <t>108977</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1497</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>109737</t>
+          <t>111104</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2043,7 +2043,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>121250</t>
+          <t>124017</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1300</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>46939</t>
+          <t>46855</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3431</t>
+          <t>3519</t>
         </is>
       </c>
     </row>
@@ -2448,7 +2448,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>89649</t>
+          <t>90397</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2468,14 +2468,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1904</t>
+          <t>1911</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>96375</t>
+          <t>97530</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2502,7 +2502,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>158555</t>
+          <t>162549</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>210794</t>
+          <t>217788</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -396,17 +396,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>57535</t>
+          <t>51779</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>42542275</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"同 风 雨"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2802</t>
+          <t>3130</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>65307</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -477,17 +477,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>51129</t>
+          <t>65215</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3130</t>
+          <t>2592</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>58145</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>42542275</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"同 风 雨"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2801</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>45879</t>
+          <t>40912</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>66666</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3625</t>
+          <t>4150</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11046</t>
+          <t>56820</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>2853</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13753</t>
+          <t>30453</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5596</t>
+          <t>4692</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19617</t>
+          <t>19580</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5205</t>
+          <t>5315</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20078</t>
+          <t>16513</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5180</t>
+          <t>5499</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31056</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4596</t>
+          <t>6225</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>53777</t>
+          <t>14902</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2965</t>
+          <t>5621</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>67104</t>
+          <t>9670</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2546</t>
+          <t>6131</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54427</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2965</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15220</t>
+          <t>66615</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5478</t>
+          <t>2564</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>15974</t>
+          <t>46498</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>66666</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5421</t>
+          <t>3625</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16327</t>
+          <t>17947</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5398</t>
+          <t>5403</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16379</t>
+          <t>15680</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5395</t>
+          <t>5559</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21354</t>
+          <t>31212</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5101</t>
+          <t>4660</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21413</t>
+          <t>6412</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>35114520</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>13lur¹³</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5098</t>
+          <t>6477</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21640</t>
+          <t>67671</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5085</t>
+          <t>2546</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>31277</t>
+          <t>20287</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4587</t>
+          <t>5280</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>32879</t>
+          <t>32578</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4519</t>
+          <t>4602</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>33167</t>
+          <t>21541</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4507</t>
+          <t>5212</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>33064</t>
+          <t>29396</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4511</t>
+          <t>4743</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>38182</t>
+          <t>11992</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4246</t>
+          <t>5944</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>39143</t>
+          <t>23124</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4192</t>
+          <t>5094</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>41362</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4071</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5761</t>
+          <t>31321</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>35114520</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>13lur¹³</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6369</t>
+          <t>4655</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8381</t>
+          <t>48951</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>3365</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9819</t>
+          <t>38929</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5959</t>
+          <t>4261</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11891</t>
+          <t>33081</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5779</t>
+          <t>4580</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12659</t>
+          <t>10688</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5702</t>
+          <t>6060</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>12820</t>
+          <t>12437</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>5878</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>17604</t>
+          <t>22690</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5316</t>
+          <t>5124</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>19041</t>
+          <t>15859</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5239</t>
+          <t>5546</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>29886</t>
+          <t>25272</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>4957</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30627</t>
+          <t>12616</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4614</t>
+          <t>5856</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>32291</t>
+          <t>37667</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4543</t>
+          <t>4333</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>33771</t>
+          <t>21323</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4480</t>
+          <t>5224</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>33805</t>
+          <t>32410</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4478</t>
+          <t>4608</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>33904</t>
+          <t>12565</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4472</t>
+          <t>5863</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>35726</t>
+          <t>33439</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4377</t>
+          <t>4566</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>36794</t>
+          <t>34026</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4316</t>
+          <t>4539</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>39798</t>
+          <t>34638</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4158</t>
+          <t>4513</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>41067</t>
+          <t>33242</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4087</t>
+          <t>4574</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>41580</t>
+          <t>40185</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4056</t>
+          <t>4190</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>48765</t>
+          <t>39854</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3322</t>
+          <t>4209</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>57011</t>
+          <t>32213</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2821</t>
+          <t>4616</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>67993</t>
+          <t>42506</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2532</t>
+          <t>4046</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>61840</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2661</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>50456</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3181</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>69505</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2517</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>44146</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3936</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>43093</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3982</t>
+          <t>1525</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>47058</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3497</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>59594</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>68751</t>
+          <t>61497</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2689</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>108824</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>108977</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>111104</t>
+          <t>43183</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1470</t>
+          <t>4002</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>124017</t>
+          <t>50821</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>3209</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1300</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1470</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>60472</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2722</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2178,17 +2178,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2205,17 +2205,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1494</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2259,17 +2259,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2286,7 +2286,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2340,7 +2340,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2367,17 +2367,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>46855</t>
+          <t>98788</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>8666978</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>FierceRocket</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3519</t>
+          <t>1633</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2448,17 +2448,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>90397</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>59304163</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Hong</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>97530</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8666978</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>FierceRocket</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>162549</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>217788</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>47528</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3509</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1020</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2637,17 +2637,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2664,17 +2664,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2691,17 +2691,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2718,17 +2718,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2745,17 +2745,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2772,17 +2772,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2799,17 +2799,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2826,17 +2826,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>91292</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>59112086</t>
+          <t>59304163</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>Hong</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1909</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>OPALUS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1746,17 +1746,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>7893843</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>"☆ MEDUSA ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4327</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18109</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>19940010</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>maik89</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3836</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>69505</t>
+          <t>34462</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>50627978</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>"☆ PANDORA ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>3289</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>44146</t>
+          <t>36356</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>4154202</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>"Klaus Taler"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3936</t>
+          <t>3211</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11346</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>51102648</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Pilsbirne</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>4020</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12592</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>24404822</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>"☆ Al Bundy ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3995</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13409</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>21042575</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Olminator</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3989</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>61497</t>
+          <t>14041</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>33634191</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>"Deus Noctem"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>3979</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>5653920</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>SvenZz</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3979</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17227</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>5488187</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>Vitala93</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3866</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>43183</t>
+          <t>17588</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>45207062</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"| 123 |"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4002</t>
+          <t>3853</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>50821</t>
+          <t>21774</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>24195835</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"DSA ToxiX"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3718</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24955</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>58029196</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>hateboxone</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>3618</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25887</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>4186901</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>"DSA Alex"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1470</t>
+          <t>3586</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>60472</t>
+          <t>29491</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>5601492</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Einherjer1975</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2722</t>
+          <t>3469</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30246</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>35493634</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>"☆ Thomas S. ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3444</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30295</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>48588331</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3442</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30507</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>29621011</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>SilentStorm</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>3435</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32618</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>6575464</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>"☆ Kinnay ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3359</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33920</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>19985443</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"☆ Coura ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3311</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49044</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>44703584</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>"DSA FiftyPark"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2699</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59645</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>7315419</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Campino1410</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2512</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23434</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>7248556</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>"☆ Unbroken ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,491 +2360,1112 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3666</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>98788</t>
+          <t>25126</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8666978</t>
+          <t>14679266</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>FierceRocket</t>
+          <t>Amboss</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>3613</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26170</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>59195175</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>Aegon</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>3577</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27548</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>21533545</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>"☆ Andy ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3534</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28517</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>59177992</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>MajolyGodnessᴰ☆ᴬ</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3501</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28890</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>44334179</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Commando</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3489</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28994</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>203024</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>"Manuel Dominick"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3486</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33638</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>14999725</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>"☆ Gandolf ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3321</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>47528</t>
+          <t>33268</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>58095669</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>Mert230312</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3509</t>
+          <t>3334</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35178</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>36985876</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>"Eleni Sachinidou"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>3260</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37546</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>49070321</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>G.hostᴰ☆ᴬ</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3156</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39907</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58161267</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>"☆ Madruk1985 D☆A"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3045</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44634</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>56737748</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>Dennny</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2842</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45226</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>3628285</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>"Schwatten92 "</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2823</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51056</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>59411469</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>Player-59411469</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2644</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57216</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>7520688</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>DSA_AustrianFish</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59290</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>58784290</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>kurama</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2515</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60798</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>59112086</t>
+          <t>6132629</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>supergamer</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2501</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>61955</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>6605534</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>らはちやんn</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2497</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>62671</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>6010385</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>"Jose Javier Davila V"</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>68309</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>17695863</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Player-17695863</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2180</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>75728</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>47243338</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>benja</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>58074881</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>USER39</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>58187893</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MagiendJr</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>98788</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>8666978</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>FierceRocket</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1633</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>15695258</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Player-15695258</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>29355299</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Player-29355299</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>41231396</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ollsthebro</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>47622456</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>伊恩</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>49553719</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>"Oreo Captain Sir"</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>55745105</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>eldeniz</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>47528</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>56241637</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Player-14day</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>3509</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>58174442</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Player-58174442</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>58572199</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>你干嘛～哎呦～</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>58671339</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>"quang pro"</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>58766144</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>EquablePrecedence38</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>58910668</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>BrittleAuthor33</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>59081265</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>爬楼梯</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>59082827</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Player-59082827</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>59106471</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>anime</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>59112086</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>sigma</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
           <t>91292</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>59304163</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Hong</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>三馆</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1909</t>
         </is>

--- a/Season_Trophies/89.xlsx
+++ b/Season_Trophies/89.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1746,17 +1746,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4244</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7893843</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"☆ MEDUSA ᴰ☆ᴬ"</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4327</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>18109</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>19940010</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>maik89</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3836</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>34462</t>
+          <t>69505</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>50627978</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"☆ PANDORA ᴰ☆ᴬ"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3289</t>
+          <t>2517</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>36356</t>
+          <t>44146</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4154202</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Klaus Taler"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>3936</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>11346</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>51102648</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Pilsbirne</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4020</t>
+          <t>1525</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>12592</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>24404822</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"☆ Al Bundy ᴰ☆ᴬ"</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3995</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>13409</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>21042575</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Olminator</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3989</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>14041</t>
+          <t>61497</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>33634191</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"Deus Noctem"</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3979</t>
+          <t>2689</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>14025</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5653920</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SvenZz</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3979</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>17227</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5488187</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Vitala93</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3866</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>17588</t>
+          <t>43183</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>45207062</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"| 123 |"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>4002</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>21774</t>
+          <t>50821</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>24195835</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"DSA ToxiX"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3718</t>
+          <t>3209</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>24955</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>58029196</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>hateboxone</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3618</t>
+          <t>1300</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>25887</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4186901</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"DSA Alex"</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3586</t>
+          <t>1470</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>29491</t>
+          <t>60472</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5601492</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Einherjer1975</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3469</t>
+          <t>2722</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>30246</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>35493634</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"☆ Thomas S. ᴰ☆ᴬ"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3444</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>30295</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>48588331</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3442</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>30507</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>29621011</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SilentStorm</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3435</t>
+          <t>1494</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>32618</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6575464</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"☆ Kinnay ᴰ☆ᴬ"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3359</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>33920</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>19985443</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"☆ Coura ᴰ☆ᴬ"</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>49044</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>44703584</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"DSA FiftyPark"</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2699</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>59645</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7315419</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Campino1410</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2512</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>23434</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7248556</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"☆ Unbroken ᴰ☆ᴬ"</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,1112 +2360,491 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3666</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>25126</t>
+          <t>98788</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>14679266</t>
+          <t>8666978</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Amboss</t>
+          <t>FierceRocket</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3613</t>
+          <t>1633</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>26170</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>59195175</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Aegon</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3577</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>27548</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>21533545</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"☆ Andy ᴰ☆ᴬ"</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3534</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>28517</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>59177992</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MajolyGodnessᴰ☆ᴬ</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3501</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>28890</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>44334179</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Commando</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3489</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>28994</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>203024</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Manuel Dominick"</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3486</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>33638</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>14999725</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"☆ Gandolf ᴰ☆ᴬ"</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3321</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>33268</t>
+          <t>47528</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>58095669</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Mert230312</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3334</t>
+          <t>3509</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>35178</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>36985876</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Eleni Sachinidou"</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>1020</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>37546</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>49070321</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>G.hostᴰ☆ᴬ</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3156</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>39907</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58161267</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"☆ Madruk1985 D☆A"</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>44634</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>56737748</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Dennny</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2842</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>45226</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3628285</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"Schwatten92 "</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2823</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>51056</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>59411469</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Player-59411469</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2644</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>57216</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7520688</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DSA_AustrianFish</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>59290</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>58784290</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>kurama</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>60798</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>6132629</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>supergamer</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>61955</t>
+          <t>91292</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>6605534</t>
+          <t>59304163</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>らはちやんn</t>
+          <t>Hong</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
-        <is>
-          <t>2497</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>62671</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>6010385</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>"Jose Javier Davila V"</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>2493</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>68309</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>17695863</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Player-17695863</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>2180</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>75728</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>47243338</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>benja</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>58074881</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>USER39</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>58187893</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>MagiendJr</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>98788</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>8666978</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>FierceRocket</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>1633</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>15695258</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Player-15695258</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>29355299</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Player-29355299</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>41231396</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>ollsthebro</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>47622456</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>伊恩</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>49553719</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>"Oreo Captain Sir"</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>55745105</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>eldeniz</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>47528</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>56241637</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Player-14day</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>3509</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>58174442</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Player-58174442</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>1020</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>58572199</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>你干嘛～哎呦～</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>58671339</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>"quang pro"</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>58766144</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>EquablePrecedence38</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>58910668</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>BrittleAuthor33</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>59081265</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>爬楼梯</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>59082827</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Player-59082827</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>59106471</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>anime</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>59112086</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>91292</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>59304163</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Hong</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
         <is>
           <t>1909</t>
         </is>
